--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW10.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha2F-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9875976918588669</v>
+        <v>0.9875976918588665</v>
       </c>
       <c r="D13">
         <v>0.9956729380976406</v>
@@ -958,13 +958,13 @@
         <v>0.9929618368150657</v>
       </c>
       <c r="F13">
-        <v>0.9875976918588669</v>
+        <v>0.9875976918588665</v>
       </c>
       <c r="G13">
         <v>0.9972591882637242</v>
       </c>
       <c r="H13">
-        <v>0.991669633748512</v>
+        <v>0.9916696337485124</v>
       </c>
       <c r="I13">
         <v>0.988845356407998</v>
@@ -976,7 +976,7 @@
         <v>0.9943173874563531</v>
       </c>
       <c r="L13">
-        <v>0.99095753965761</v>
+        <v>0.9909575396576098</v>
       </c>
       <c r="M13">
         <v>0.9923344408653012</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9576415967579223</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.674365088669574</v>
+      </c>
+      <c r="D16">
+        <v>1.549275029639975</v>
+      </c>
+      <c r="E16">
+        <v>0.6158939211221109</v>
+      </c>
+      <c r="F16">
+        <v>1.674365088669574</v>
+      </c>
+      <c r="G16">
+        <v>1.228437297018139</v>
+      </c>
+      <c r="H16">
+        <v>1.20694505993909</v>
+      </c>
+      <c r="I16">
+        <v>0.7380088131999583</v>
+      </c>
+      <c r="J16">
+        <v>1.549275029639975</v>
+      </c>
+      <c r="K16">
+        <v>1.082584475381043</v>
+      </c>
+      <c r="L16">
+        <v>1.378474782025308</v>
+      </c>
+      <c r="M16">
+        <v>1.168820868264808</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.674365088669574</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW10.xlsx
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9875976918588665</v>
+        <v>0.9875976918588669</v>
       </c>
       <c r="D13">
         <v>0.9956729380976406</v>
@@ -961,13 +961,13 @@
         <v>0.9929618368150657</v>
       </c>
       <c r="F13">
-        <v>0.9875976918588665</v>
+        <v>0.9875976918588669</v>
       </c>
       <c r="G13">
         <v>0.9972591882637242</v>
       </c>
       <c r="H13">
-        <v>0.9916696337485124</v>
+        <v>0.991669633748512</v>
       </c>
       <c r="I13">
         <v>0.988845356407998</v>
@@ -979,7 +979,7 @@
         <v>0.9943173874563531</v>
       </c>
       <c r="L13">
-        <v>0.9909575396576098</v>
+        <v>0.99095753965761</v>
       </c>
       <c r="M13">
         <v>0.9923344408653012</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.1746239999999965</v>
+        <v>1.674365088669574</v>
       </c>
       <c r="D10">
-        <v>1.371964000000002</v>
+        <v>1.549275029639975</v>
       </c>
       <c r="E10">
-        <v>1.530551999999999</v>
+        <v>0.6158939211221109</v>
       </c>
       <c r="F10">
-        <v>0.1746239999999965</v>
+        <v>1.674365088669574</v>
       </c>
       <c r="G10">
-        <v>0.8761240000000011</v>
+        <v>1.228437297018139</v>
       </c>
       <c r="H10">
-        <v>1.011708000000002</v>
+        <v>1.20694505993909</v>
       </c>
       <c r="I10">
-        <v>0.8871640000000003</v>
+        <v>0.7380088131999583</v>
       </c>
       <c r="J10">
-        <v>1.371964000000002</v>
+        <v>1.549275029639975</v>
       </c>
       <c r="K10">
-        <v>1.451258000000001</v>
+        <v>1.082584475381043</v>
       </c>
       <c r="L10">
-        <v>0.8129409999999985</v>
+        <v>1.378474782025308</v>
       </c>
       <c r="M10">
-        <v>0.9753560000000002</v>
+        <v>1.168820868264808</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0.8641245574885912</v>
       </c>
       <c r="D11">
-        <v>0.17</v>
+        <v>1.770979305668895</v>
       </c>
       <c r="E11">
-        <v>1.886687500000001</v>
+        <v>1.113894330462043</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0.8641245574885912</v>
       </c>
       <c r="G11">
-        <v>0.8573874999999987</v>
+        <v>0.5825509544718723</v>
       </c>
       <c r="H11">
-        <v>0.03</v>
+        <v>2.729480017521278</v>
       </c>
       <c r="I11">
-        <v>0.9938999999999982</v>
+        <v>0.861675581484458</v>
       </c>
       <c r="J11">
-        <v>0.17</v>
+        <v>1.770979305668895</v>
       </c>
       <c r="K11">
-        <v>1.028343750000001</v>
+        <v>1.442436818065469</v>
       </c>
       <c r="L11">
-        <v>0.5191718750000003</v>
+        <v>1.15328068777703</v>
       </c>
       <c r="M11">
-        <v>0.657995833333333</v>
+        <v>1.320450791182856</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.3993886746624021</v>
+        <v>0.8653353956300618</v>
       </c>
       <c r="D12">
-        <v>0.5165550780416036</v>
+        <v>1.779038127328181</v>
       </c>
       <c r="E12">
-        <v>1.492762168012801</v>
+        <v>1.113416728255973</v>
       </c>
       <c r="F12">
-        <v>0.3993886746624021</v>
+        <v>0.8653353956300618</v>
       </c>
       <c r="G12">
-        <v>0.9448966324224</v>
+        <v>0.5848169410114502</v>
       </c>
       <c r="H12">
-        <v>0.4362784116736026</v>
+        <v>2.723699177121625</v>
       </c>
       <c r="I12">
-        <v>0.9905982595072008</v>
+        <v>0.8607404800565623</v>
       </c>
       <c r="J12">
-        <v>0.5165550780416036</v>
+        <v>1.779038127328181</v>
       </c>
       <c r="K12">
-        <v>1.004658623027202</v>
+        <v>1.446227427792077</v>
       </c>
       <c r="L12">
-        <v>0.7020236488448023</v>
+        <v>1.155781411711069</v>
       </c>
       <c r="M12">
-        <v>0.7967465373866683</v>
+        <v>1.321174474900642</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9875976918588669</v>
+        <v>0.8634874956247396</v>
       </c>
       <c r="D13">
-        <v>0.9956729380976406</v>
+        <v>1.775932319162703</v>
       </c>
       <c r="E13">
-        <v>0.9929618368150657</v>
+        <v>1.113567780979181</v>
       </c>
       <c r="F13">
-        <v>0.9875976918588669</v>
+        <v>0.8634874956247396</v>
       </c>
       <c r="G13">
-        <v>0.9972591882637242</v>
+        <v>0.5837122533722552</v>
       </c>
       <c r="H13">
-        <v>0.991669633748512</v>
+        <v>2.729666530107401</v>
       </c>
       <c r="I13">
-        <v>0.988845356407998</v>
+        <v>0.8611096382837026</v>
       </c>
       <c r="J13">
-        <v>0.9956729380976406</v>
+        <v>1.775932319162703</v>
       </c>
       <c r="K13">
-        <v>0.9943173874563531</v>
+        <v>1.444750050070942</v>
       </c>
       <c r="L13">
-        <v>0.99095753965761</v>
+        <v>1.154118772847841</v>
       </c>
       <c r="M13">
-        <v>0.9923344408653012</v>
+        <v>1.321246002921664</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.194908510254233</v>
+        <v>0.1746239999999965</v>
       </c>
       <c r="D14">
-        <v>0.954400535753294</v>
+        <v>1.371964000000002</v>
       </c>
       <c r="E14">
-        <v>1.020073377622325</v>
+        <v>1.530551999999999</v>
       </c>
       <c r="F14">
-        <v>1.194908510254233</v>
+        <v>0.1746239999999965</v>
       </c>
       <c r="G14">
-        <v>0.9562141094853609</v>
+        <v>0.8761240000000011</v>
       </c>
       <c r="H14">
-        <v>1.002062456044293</v>
+        <v>1.011708000000002</v>
       </c>
       <c r="I14">
-        <v>0.9524729883798714</v>
+        <v>0.8871640000000003</v>
       </c>
       <c r="J14">
-        <v>0.954400535753294</v>
+        <v>1.371964000000002</v>
       </c>
       <c r="K14">
-        <v>0.9872369566878096</v>
+        <v>1.451258000000001</v>
       </c>
       <c r="L14">
-        <v>1.091072733471021</v>
+        <v>0.8129409999999985</v>
       </c>
       <c r="M14">
-        <v>1.013355329589896</v>
+        <v>0.9753560000000002</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9333259351345736</v>
+        <v>0.01</v>
       </c>
       <c r="D15">
-        <v>0.7558880156610238</v>
+        <v>0.17</v>
       </c>
       <c r="E15">
-        <v>1.050042553223777</v>
+        <v>1.886687500000001</v>
       </c>
       <c r="F15">
-        <v>0.9333259351345736</v>
+        <v>0.01</v>
       </c>
       <c r="G15">
-        <v>0.9538852878385292</v>
+        <v>0.8573874999999987</v>
       </c>
       <c r="H15">
-        <v>1.029393550988513</v>
+        <v>0.03</v>
       </c>
       <c r="I15">
-        <v>1.023314237701116</v>
+        <v>0.9938999999999982</v>
       </c>
       <c r="J15">
-        <v>0.7558880156610238</v>
+        <v>0.17</v>
       </c>
       <c r="K15">
-        <v>0.9029652844424005</v>
+        <v>1.028343750000001</v>
       </c>
       <c r="L15">
-        <v>0.9181456097884871</v>
+        <v>0.5191718750000003</v>
       </c>
       <c r="M15">
-        <v>0.9576415967579223</v>
+        <v>0.657995833333333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.674365088669574</v>
+        <v>0.3993886746624021</v>
       </c>
       <c r="D16">
-        <v>1.549275029639975</v>
+        <v>0.5165550780416036</v>
       </c>
       <c r="E16">
-        <v>0.6158939211221109</v>
+        <v>1.492762168012801</v>
       </c>
       <c r="F16">
-        <v>1.674365088669574</v>
+        <v>0.3993886746624021</v>
       </c>
       <c r="G16">
-        <v>1.228437297018139</v>
+        <v>0.9448966324224</v>
       </c>
       <c r="H16">
-        <v>1.20694505993909</v>
+        <v>0.4362784116736026</v>
       </c>
       <c r="I16">
-        <v>0.7380088131999583</v>
+        <v>0.9905982595072008</v>
       </c>
       <c r="J16">
-        <v>1.549275029639975</v>
+        <v>0.5165550780416036</v>
       </c>
       <c r="K16">
-        <v>1.082584475381043</v>
+        <v>1.004658623027202</v>
       </c>
       <c r="L16">
-        <v>1.378474782025308</v>
+        <v>0.7020236488448023</v>
       </c>
       <c r="M16">
-        <v>1.168820868264808</v>
+        <v>0.7967465373866683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9875976918588665</v>
+      </c>
+      <c r="D17">
+        <v>0.9956729380976406</v>
+      </c>
+      <c r="E17">
+        <v>0.9929618368150657</v>
+      </c>
+      <c r="F17">
+        <v>0.9875976918588665</v>
+      </c>
+      <c r="G17">
+        <v>0.9972591882637242</v>
+      </c>
+      <c r="H17">
+        <v>0.9916696337485124</v>
+      </c>
+      <c r="I17">
+        <v>0.988845356407998</v>
+      </c>
+      <c r="J17">
+        <v>0.9956729380976406</v>
+      </c>
+      <c r="K17">
+        <v>0.9943173874563531</v>
+      </c>
+      <c r="L17">
+        <v>0.9909575396576098</v>
+      </c>
+      <c r="M17">
+        <v>0.9923344408653012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.194908510254233</v>
+      </c>
+      <c r="D18">
+        <v>0.954400535753294</v>
+      </c>
+      <c r="E18">
+        <v>1.020073377622325</v>
+      </c>
+      <c r="F18">
+        <v>1.194908510254233</v>
+      </c>
+      <c r="G18">
+        <v>0.9562141094853609</v>
+      </c>
+      <c r="H18">
+        <v>1.002062456044293</v>
+      </c>
+      <c r="I18">
+        <v>0.9524729883798714</v>
+      </c>
+      <c r="J18">
+        <v>0.954400535753294</v>
+      </c>
+      <c r="K18">
+        <v>0.9872369566878096</v>
+      </c>
+      <c r="L18">
+        <v>1.091072733471021</v>
+      </c>
+      <c r="M18">
+        <v>1.013355329589896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9333259351345736</v>
+      </c>
+      <c r="D19">
+        <v>0.7558880156610238</v>
+      </c>
+      <c r="E19">
+        <v>1.050042553223777</v>
+      </c>
+      <c r="F19">
+        <v>0.9333259351345736</v>
+      </c>
+      <c r="G19">
+        <v>0.9538852878385292</v>
+      </c>
+      <c r="H19">
+        <v>1.029393550988513</v>
+      </c>
+      <c r="I19">
+        <v>1.023314237701116</v>
+      </c>
+      <c r="J19">
+        <v>0.7558880156610238</v>
+      </c>
+      <c r="K19">
+        <v>0.9029652844424005</v>
+      </c>
+      <c r="L19">
+        <v>0.9181456097884871</v>
+      </c>
+      <c r="M19">
+        <v>0.9576415967579223</v>
       </c>
     </row>
   </sheetData>
